--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -16,57 +16,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>api host</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>用例名</t>
+  </si>
+  <si>
+    <t>参数</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>request method</t>
-  </si>
-  <si>
-    <t>request data type</t>
-  </si>
-  <si>
-    <t>request data</t>
-  </si>
-  <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>https://pc8.shein.com</t>
-  </si>
-  <si>
-    <t>/user/auth/login</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>{'email':'test2@666.com','password':'123456'}</t>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>期望msg</t>
+  </si>
+  <si>
+    <t>登陆-正确账号密码</t>
+  </si>
+  <si>
+    <t>{"email":"test55@qq.com","password":"123456"}</t>
+  </si>
+  <si>
+    <t>http://pc3.shein.com/user/auth/login</t>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>{'email':'test2@666.com','password':'123457'}</t>
-  </si>
-  <si>
-    <t>password error</t>
+    <t>登陆-正确账号错误密码</t>
+  </si>
+  <si>
+    <t>登陆-错误账号正确密码</t>
   </si>
 </sst>
 </file>
@@ -74,12 +62,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,21 +80,56 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,45 +151,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,8 +197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,30 +222,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +237,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,175 +387,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,27 +431,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -466,15 +451,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,8 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,16 +494,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -540,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,10 +682,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,23 +1036,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="46.375" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="46.375" customWidth="1"/>
+    <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,69 +1071,73 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="21" customHeight="1" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
+    <row r="5" ht="20" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://pc8.shein.com"/>
-    <hyperlink ref="C3" r:id="rId1" display="https://pc8.shein.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://pc3.shein.com/user/auth/login" tooltip="http://pc3.shein.com/user/auth/login"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://pc3.shein.com/user/auth/login" tooltip="http://pc3.shein.com/user/auth/login"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://pc3.shein.com/user/auth/login" tooltip="http://pc3.shein.com/user/auth/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1148,14 +1148,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="18375" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="addwishlist" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>用例ID</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>登陆-错误账号正确密码</t>
+  </si>
+  <si>
+    <t>{"goods_id":"30"}</t>
+  </si>
+  <si>
+    <t>http://pc4-au.shein.com/user/wishlist/add</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"goods_id":"99999999"}</t>
+  </si>
+  <si>
+    <t>{"goods_id":"@$&amp;!)$"}</t>
   </si>
 </sst>
 </file>
@@ -62,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -80,11 +95,26 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,6 +123,52 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,23 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,62 +229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +443,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,15 +490,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -501,15 +525,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,144 +563,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,7 +1100,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1102,7 +1120,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -1122,7 +1140,7 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
@@ -1148,30 +1166,103 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="60.75" customWidth="1"/>
+    <col min="4" max="4" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://pc4-au.shein.com/user/wishlist/add" tooltip="http://pc4-au.shein.com/user/wishlist/add"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://pc4-au.shein.com/user/wishlist/add" tooltip="http://pc4-au.shein.com/user/wishlist/add"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://pc4-au.shein.com/user/wishlist/add" tooltip="http://pc4-au.shein.com/user/wishlist/add"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18375" windowHeight="6075"/>
+    <workbookView windowWidth="17544" windowHeight="5304"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>{"email":"test55@qq.com","password":"123456"}</t>
   </si>
   <si>
-    <t>http://pc3.shein.com/user/auth/login</t>
+    <t>http://mx.shein.com/user/auth/login</t>
   </si>
   <si>
     <t>POST</t>
@@ -78,8 +78,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -108,21 +108,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,44 +176,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,39 +199,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,12 +252,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -270,19 +390,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,145 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,15 +443,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,17 +470,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,26 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,6 +519,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,7 +563,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,10 +572,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,112 +584,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,17 +1057,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="56.375" customWidth="1"/>
+    <col min="3" max="3" width="56.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="45.5" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="46.375" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="46.3796296296296" customWidth="1"/>
+    <col min="7" max="7" width="22.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1153,9 +1153,9 @@
     <row r="5" ht="20" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://pc3.shein.com/user/auth/login" tooltip="http://pc3.shein.com/user/auth/login"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://pc3.shein.com/user/auth/login" tooltip="http://pc3.shein.com/user/auth/login"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://pc3.shein.com/user/auth/login" tooltip="http://pc3.shein.com/user/auth/login"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://mx.shein.com/user/auth/login" tooltip="http://mx.shein.com/user/auth/login"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://mx.shein.com/user/auth/login" tooltip="http://mx.shein.com/user/auth/login"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://mx.shein.com/user/auth/login" tooltip="http://mx.shein.com/user/auth/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1172,12 +1172,12 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="25.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="60.75" customWidth="1"/>
-    <col min="4" max="4" width="62.625" customWidth="1"/>
+    <col min="4" max="4" width="62.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1278,7 +1278,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17544" windowHeight="5304"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>用例ID</t>
   </si>
@@ -39,10 +39,10 @@
     <t>登陆-正确账号密码</t>
   </si>
   <si>
-    <t>{"email":"test55@qq.com","password":"123456"}</t>
-  </si>
-  <si>
-    <t>http://mx.shein.com/user/auth/login</t>
+    <t>{"email":"test1@qq.com","password":"123456"}</t>
+  </si>
+  <si>
+    <t>https://www.shein.com/user/auth/login</t>
   </si>
   <si>
     <t>POST</t>
@@ -54,7 +54,13 @@
     <t>登陆-正确账号错误密码</t>
   </si>
   <si>
+    <t>{"email":"test2@qq.com","password":"123456"}</t>
+  </si>
+  <si>
     <t>登陆-错误账号正确密码</t>
+  </si>
+  <si>
+    <t>{"email":"test3@qq.com","password":"1234567"}</t>
   </si>
   <si>
     <t>{"goods_id":"30"}</t>
@@ -77,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -114,6 +120,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,7 +137,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,112 +248,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -252,97 +258,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,85 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +467,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -473,34 +494,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +515,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,8 +529,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,19 +569,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,112 +590,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1063,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1118,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -1135,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -1153,9 +1159,9 @@
     <row r="5" ht="20" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mx.shein.com/user/auth/login" tooltip="http://mx.shein.com/user/auth/login"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://mx.shein.com/user/auth/login" tooltip="http://mx.shein.com/user/auth/login"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://mx.shein.com/user/auth/login" tooltip="http://mx.shein.com/user/auth/login"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.shein.com/user/auth/login" tooltip="https://www.shein.com/user/auth/login"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.shein.com/user/auth/login" tooltip="https://www.shein.com/user/auth/login"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://www.shein.com/user/auth/login" tooltip="https://www.shein.com/user/auth/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1205,13 +1211,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1222,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1239,13 +1245,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
